--- a/co-IP/17Jul2024_Prime_t24_t36_t48_co-IP_MassSpec_proteins_TAZ_WT.xlsx
+++ b/co-IP/17Jul2024_Prime_t24_t36_t48_co-IP_MassSpec_proteins_TAZ_WT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvsan\code\Hippo-Pathway-and-PSM-Formation\co-IP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C98238D-E1DD-4D5C-AD34-FCDAEE28B028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA6ABBE-F137-414A-B650-CD0D980A244B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1090,15 +1090,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFABF8F"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1401,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9618,7 +9610,7 @@
   </sheetData>
   <autoFilter ref="A2:AX110" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AX110">
-      <sortCondition sortBy="cellColor" ref="K2:K110" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="K2:K110" dxfId="0"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
